--- a/Data/Excels/Agencys.xlsx
+++ b/Data/Excels/Agencys.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -177,7 +177,7 @@
     <t>AgencyName</t>
   </si>
   <si>
-    <t>AgencyResUrl</t>
+    <t>EntityId</t>
   </si>
   <si>
     <t>ScaleMax</t>
@@ -204,7 +204,7 @@
     <t>机关名称</t>
   </si>
   <si>
-    <t>图标路径</t>
+    <t>关联的实体Id</t>
   </si>
   <si>
     <t>最大缩放参数</t>
@@ -216,9 +216,6 @@
     <t>棒子</t>
   </si>
   <si>
-    <t>Sprite/GameAgencys/Line</t>
-  </si>
-  <si>
     <t>X: 10 Y:10 Z:10</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>摩天轮</t>
   </si>
   <si>
-    <t>Sprite/GameAgencys/FerrisWheel</t>
-  </si>
-  <si>
     <t>X: 10 Y:10 Z:11</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
   </si>
   <si>
     <t>楼梯哒哒哒</t>
-  </si>
-  <si>
-    <t>Sprite/GameAgencys/Stairs</t>
   </si>
   <si>
     <t>X: 10 Y:10 Z:12</t>
@@ -331,13 +322,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -346,54 +330,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,41 +361,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,12 +415,50 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -501,13 +492,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,169 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,16 +725,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -764,17 +755,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,24 +798,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -815,10 +806,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,133 +818,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,7 +1286,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1319,7 +1310,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1328,7 +1319,6 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -1344,8 +1334,8 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -1353,7 +1343,6 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1367,10 +1356,9 @@
         <v>8</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3"/>
       <c r="D3" s="3"/>
       <c r="E3"/>
-      <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -1395,7 +1383,6 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1411,16 +1398,15 @@
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -1434,18 +1420,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -1459,18 +1444,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -1546,53 +1530,53 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excels/Agencys.xlsx
+++ b/Data/Excels/Agencys.xlsx
@@ -42,6 +42,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果ID有重复, 将报错</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D3" authorId="0">
       <text>
         <r>
@@ -64,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,17 +191,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>EntityId</t>
+  </si>
+  <si>
     <t>AgencyName</t>
   </si>
   <si>
-    <t>EntityId</t>
-  </si>
-  <si>
     <t>ScaleMax</t>
   </si>
   <si>
@@ -201,10 +223,10 @@
     <t>机关ID</t>
   </si>
   <si>
+    <t>关联的实体Id</t>
+  </si>
+  <si>
     <t>机关名称</t>
-  </si>
-  <si>
-    <t>关联的实体Id</t>
   </si>
   <si>
     <t>最大缩放参数</t>
@@ -322,6 +344,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -330,6 +381,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -338,11 +473,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,118 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -492,31 +514,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,151 +682,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,38 +726,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,6 +756,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -778,26 +820,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -806,10 +828,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,133 +840,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1286,14 +1308,14 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="8" width="15.75" style="2" customWidth="1"/>
@@ -1310,7 +1332,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1332,10 +1354,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -1355,8 +1377,10 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3"/>
       <c r="G3"/>
@@ -1395,11 +1419,11 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -1419,11 +1443,11 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1443,11 +1467,11 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
